--- a/Productos.xlsx
+++ b/Productos.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blasferp\Documents\GitHub\Control-de-Comercio\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B991885E-4262-4B51-89F9-56E08232BAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Nombre_Producto</t>
   </si>
@@ -40,26 +34,44 @@
     <t>SERVILLETAS 33X33 (ELEGANTE)</t>
   </si>
   <si>
+    <t>SERVILLETAS INTERCALADAS (BEIGE)</t>
+  </si>
+  <si>
+    <t>SERVILLETAS INTERCALADAS (BLANCAS)</t>
+  </si>
+  <si>
     <t>PAPEL HIGIENICO (CONO CHICO)</t>
   </si>
   <si>
     <t>PAPEL HIGIENICO (CONO GRANDE)</t>
   </si>
   <si>
-    <t>SERVILLETAS INTERCALADAS (BEIGE)</t>
-  </si>
-  <si>
-    <t>SERVILLETAS INTERCALADAS (BLANCAS)</t>
+    <t>BOBINAS 20 CM (BLANCAS)</t>
+  </si>
+  <si>
+    <t>BOBINAS 20 CM (BEIGE)</t>
+  </si>
+  <si>
+    <t>BOBINAS 25 CM (BLANCAS)</t>
+  </si>
+  <si>
+    <t>BOBINAS  NEWPEL 25 CM (BLANCAS)</t>
+  </si>
+  <si>
+    <t>TOALLAS X 4  (BLANCAS)</t>
+  </si>
+  <si>
+    <t>TOALLAS X 4  (BEIGE)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,19 +135,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -177,7 +181,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,27 +213,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,24 +247,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,20 +422,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -492,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>45500.009428634257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45500.00942863426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -506,55 +468,55 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>45500.009649664353</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45500.00964966435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45500.00995398148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45500.01012858796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45500.009953981476</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45500.01046767361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>45500.010128587957</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>45500.010467673608</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
       <c r="B7">
         <v>0</v>
       </c>
@@ -562,7 +524,91 @@
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>45500.010606794684</v>
+        <v>45500.01060679399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45500.02012148148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45500.0202846875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45500.0204915625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45500.02076861111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45500.02130549768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45500.0214477199</v>
       </c>
     </row>
   </sheetData>

--- a/Productos.xlsx
+++ b/Productos.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blasferp\Documents\GitHub\Control-de-Comercio\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEB1D23-19AE-4CC5-9AF9-39F3F99F7A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -34,12 +40,6 @@
     <t>SERVILLETAS 33X33 (ELEGANTE)</t>
   </si>
   <si>
-    <t>SERVILLETAS INTERCALADAS (BEIGE)</t>
-  </si>
-  <si>
-    <t>SERVILLETAS INTERCALADAS (BLANCAS)</t>
-  </si>
-  <si>
     <t>PAPEL HIGIENICO (CONO CHICO)</t>
   </si>
   <si>
@@ -55,23 +55,29 @@
     <t>BOBINAS 25 CM (BLANCAS)</t>
   </si>
   <si>
-    <t>BOBINAS  NEWPEL 25 CM (BLANCAS)</t>
-  </si>
-  <si>
     <t>TOALLAS X 4  (BLANCAS)</t>
   </si>
   <si>
     <t>TOALLAS X 4  (BEIGE)</t>
+  </si>
+  <si>
+    <t>TOALLAS INTERCALADAS (BEIGE)</t>
+  </si>
+  <si>
+    <t>TOALLAS INTERCALADAS (BLANCAS)</t>
+  </si>
+  <si>
+    <t>BOBINAS NEWPEL 20 CM (BLANCAS)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,11 +141,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -181,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,9 +227,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -247,6 +279,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -422,14 +472,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -454,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>45500.00942863426</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>45500.009428634257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -468,96 +523,96 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>45500.00964966435</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>45500.009649664353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45500.009953981476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45500.010128587957</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45500.00995398148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45500.010467673608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>45500.01012858796</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45500.010606793992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>45500.01046767361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45500.020121481481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45500.01060679399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45500.020284687504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>45500.02012148148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>45500.0202846875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>12</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -569,9 +624,9 @@
         <v>45500.0204915625</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -583,9 +638,9 @@
         <v>45500.02076861111</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -594,12 +649,12 @@
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>45500.02130549768</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>45500.021305497678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -608,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="2">
-        <v>45500.0214477199</v>
+        <v>45500.021447719897</v>
       </c>
     </row>
   </sheetData>
